--- a/Others/ScanCodes.xlsx
+++ b/Others/ScanCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C50A31-5C4B-4D23-AE7B-DFFBC581FC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0F3B66-718C-45A0-BF09-0DBC7820643F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E80E8ADF-EE84-4BD0-94E9-9DC04762BB48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -372,6 +372,237 @@
   </si>
   <si>
     <t>AD</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>B7</t>
   </si>
 </sst>
 </file>
@@ -450,10 +681,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED277CD-7C40-40A2-9F0C-94BE7BC78BF9}">
-  <dimension ref="B4:S30"/>
+  <dimension ref="B4:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -782,26 +1013,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:19">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="2:19">
       <c r="C5" s="1" t="s">
@@ -857,36 +1088,58 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="D6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="2">
         <v>79</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="I6" s="2">
+        <v>78</v>
+      </c>
+      <c r="J6" s="2">
         <v>77</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
+      <c r="K6" s="2">
+        <v>76</v>
+      </c>
+      <c r="L6" s="2">
+        <v>75</v>
+      </c>
+      <c r="M6" s="2">
         <v>74</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3">
+      <c r="N6" s="2">
+        <v>73</v>
+      </c>
+      <c r="O6" s="2">
+        <v>72</v>
+      </c>
+      <c r="P6" s="2">
         <v>71</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3">
+      <c r="Q6" s="2">
+        <v>70</v>
+      </c>
+      <c r="R6" s="2">
         <v>11</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:19">
       <c r="C7" s="1">
@@ -939,36 +1192,56 @@
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>69</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
+      <c r="I8" s="2">
+        <v>68</v>
+      </c>
+      <c r="J8" s="2">
+        <v>67</v>
+      </c>
+      <c r="K8" s="2">
         <v>66</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>65</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
+      <c r="M8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="2">
+        <v>64</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="P8" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>62</v>
+      </c>
+      <c r="R8" s="2">
+        <v>61</v>
+      </c>
+      <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="1" t="s">
@@ -1018,28 +1291,54 @@
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="2">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2">
+        <v>58</v>
+      </c>
+      <c r="K10" s="2">
+        <v>57</v>
+      </c>
+      <c r="L10" s="2">
+        <v>56</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+      <c r="N10" s="2">
+        <v>54</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2">
+        <v>52</v>
+      </c>
+      <c r="R10" s="2">
+        <v>51</v>
+      </c>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="1" t="s">
@@ -1086,30 +1385,50 @@
       </c>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
+      <c r="F12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="2">
         <v>49</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="J12" s="2">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2">
+        <v>47</v>
+      </c>
+      <c r="L12" s="2">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2">
         <v>45</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="N12" s="2">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2">
+        <v>29</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" s="1" t="s">
@@ -1156,32 +1475,48 @@
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
+      <c r="I14" s="2">
+        <v>39</v>
+      </c>
+      <c r="J14" s="2">
+        <v>38</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="2">
+        <v>37</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S14" s="2"/>
     </row>
     <row r="15" spans="2:19">
       <c r="G15" s="1" t="s">
@@ -1191,27 +1526,35 @@
         <v>74</v>
       </c>
     </row>
+    <row r="16" spans="2:19">
+      <c r="G16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>28</v>
+      </c>
+    </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="2:19">
       <c r="C20" s="1" t="s">
@@ -1267,36 +1610,58 @@
       </c>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
+      <c r="K21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3" t="s">
+      <c r="N21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3">
+      <c r="Q21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" s="2">
         <v>91</v>
       </c>
-      <c r="S21" s="3"/>
+      <c r="S21" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="2:19">
       <c r="C22" s="1">
@@ -1349,36 +1714,56 @@
       </c>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="I23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
+      <c r="M23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="P23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S23" s="2"/>
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="1" t="s">
@@ -1428,28 +1813,54 @@
       </c>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S25" s="2"/>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="1" t="s">
@@ -1496,30 +1907,50 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
+      <c r="F27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
+      <c r="J27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="N27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
     </row>
     <row r="28" spans="2:19">
       <c r="B28" s="1" t="s">
@@ -1566,32 +1997,48 @@
       </c>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="E29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3" t="s">
+      <c r="I29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S29" s="2"/>
     </row>
     <row r="30" spans="2:19">
       <c r="G30" s="1" t="s">
@@ -1599,6 +2046,14 @@
       </c>
       <c r="Q30" s="1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="G31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
